--- a/AFL_ML/Data/Brisbane_stats.xlsx
+++ b/AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1384,8 +1384,11 @@
       <c r="KU1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="2" t="n">
         <v>10754</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>10761</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -2312,7 +2315,10 @@
       <c r="KU2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3240,8 +3246,11 @@
       <c r="KU3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -4168,8 +4177,11 @@
       <c r="KU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -5096,7 +5108,10 @@
       <c r="KU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,8 +6039,11 @@
       <c r="KU6" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -6952,8 +6970,11 @@
       <c r="KU7" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -7880,8 +7901,11 @@
       <c r="KU8" s="2" t="n">
         <v>-71</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="2" t="n">
         <v>-54</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -8808,8 +8832,11 @@
       <c r="KU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -9736,8 +9763,11 @@
       <c r="KU10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -10664,8 +10694,11 @@
       <c r="KU11" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -11592,8 +11625,11 @@
       <c r="KU12" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -12520,8 +12556,11 @@
       <c r="KU13" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -13448,8 +13487,11 @@
       <c r="KU14" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -14376,8 +14418,11 @@
       <c r="KU15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -15304,8 +15349,11 @@
       <c r="KU16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -16232,8 +16280,11 @@
       <c r="KU17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -17160,8 +17211,11 @@
       <c r="KU18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -18088,8 +18142,11 @@
       <c r="KU19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -19016,8 +19073,11 @@
       <c r="KU20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -19944,8 +20004,11 @@
       <c r="KU21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -20872,8 +20935,11 @@
       <c r="KU22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KW22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -21800,8 +21866,11 @@
       <c r="KU23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -22728,8 +22797,11 @@
       <c r="KU24" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -23656,8 +23728,11 @@
       <c r="KU25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -24584,8 +24659,11 @@
       <c r="KU26" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -25512,8 +25590,11 @@
       <c r="KU27" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="2" t="n">
         <v>15.53</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>14.7</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -26440,8 +26521,11 @@
       <c r="KU28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KW28" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -27368,8 +27452,11 @@
       <c r="KU29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -28296,8 +28383,11 @@
       <c r="KU30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -29224,8 +29314,11 @@
       <c r="KU31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -30152,8 +30245,11 @@
       <c r="KU32" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="2" t="n">
         <v>2.35</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -31080,8 +31176,11 @@
       <c r="KU33" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>4.21</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -32008,8 +32107,11 @@
       <c r="KU34" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -32936,8 +33038,11 @@
       <c r="KU35" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -33864,8 +33969,11 @@
       <c r="KU36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KW36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -34792,8 +34900,11 @@
       <c r="KU37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>89.8</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -35720,8 +35831,11 @@
       <c r="KU38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -36648,8 +36762,11 @@
       <c r="KU39" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="2" t="n">
         <v>103.7</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -37576,8 +37693,11 @@
       <c r="KU40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -38504,7 +38624,10 @@
       <c r="KU41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39432,7 +39555,10 @@
       <c r="KU42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40360,8 +40486,11 @@
       <c r="KU43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -41288,8 +41417,11 @@
       <c r="KU44" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -42216,8 +42348,11 @@
       <c r="KU45" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -43144,8 +43279,11 @@
       <c r="KU46" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -44072,8 +44210,11 @@
       <c r="KU47" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="2" t="n">
         <v>68.59999999999999</v>
+      </c>
+      <c r="KW47" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -45000,8 +45141,11 @@
       <c r="KU48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -45928,8 +46072,11 @@
       <c r="KU49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -46856,8 +47003,11 @@
       <c r="KU50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -47784,8 +47934,11 @@
       <c r="KU51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KW51" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -48712,8 +48865,11 @@
       <c r="KU52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -49640,8 +49796,11 @@
       <c r="KU53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -50568,7 +50727,10 @@
       <c r="KU54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51496,8 +51658,11 @@
       <c r="KU55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -52424,8 +52589,11 @@
       <c r="KU56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="KW56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -53352,8 +53520,11 @@
       <c r="KU57" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KW57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -54280,8 +54451,11 @@
       <c r="KU58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="KW58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -55208,8 +55382,11 @@
       <c r="KU59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="2" t="n">
         <v>405</v>
+      </c>
+      <c r="KW59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -56136,8 +56313,11 @@
       <c r="KU60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="KW60" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -57064,8 +57244,11 @@
       <c r="KU61" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="KW61" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -57992,8 +58175,11 @@
       <c r="KU62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KW62" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -58920,8 +59106,11 @@
       <c r="KU63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KW63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -59848,8 +60037,11 @@
       <c r="KU64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KW64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -60776,8 +60968,11 @@
       <c r="KU65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KW65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -61704,8 +61899,11 @@
       <c r="KU66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KW66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -62632,8 +62830,11 @@
       <c r="KU67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KW67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -63560,8 +63761,11 @@
       <c r="KU68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -64488,8 +64692,11 @@
       <c r="KU69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KW69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -65416,8 +65623,11 @@
       <c r="KU70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KW70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -66344,8 +66554,11 @@
       <c r="KU71" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KW71" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -67272,8 +67485,11 @@
       <c r="KU72" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="2" t="n">
         <v>22.5</v>
+      </c>
+      <c r="KW72" t="n">
+        <v>26.92</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -68200,8 +68416,11 @@
       <c r="KU73" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="2" t="n">
         <v>11.25</v>
+      </c>
+      <c r="KW73" t="n">
+        <v>20.59</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -69128,8 +69347,11 @@
       <c r="KU74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -70056,8 +70278,11 @@
       <c r="KU75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KW75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -70984,8 +71209,11 @@
       <c r="KU76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KW76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -71912,8 +72140,11 @@
       <c r="KU77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KW77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -72840,8 +73071,11 @@
       <c r="KU78" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="KW78" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -73768,8 +74002,11 @@
       <c r="KU79" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="2" t="n">
         <v>3.61</v>
+      </c>
+      <c r="KW79" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -74696,8 +74933,11 @@
       <c r="KU80" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="2" t="n">
         <v>52.3</v>
+      </c>
+      <c r="KW80" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -75624,8 +75864,11 @@
       <c r="KU81" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="2" t="n">
         <v>27.7</v>
+      </c>
+      <c r="KW81" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -76552,8 +76795,11 @@
       <c r="KU82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KW82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -77480,8 +77726,11 @@
       <c r="KU83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KW83" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -78408,8 +78657,11 @@
       <c r="KU84" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KW84" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -79336,8 +79588,11 @@
       <c r="KU85" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KW85" t="n">
+        <v>123.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -80264,8 +80519,11 @@
       <c r="KU86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -81192,8 +81450,11 @@
       <c r="KU87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -82120,8 +82381,11 @@
       <c r="KU88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -83048,8 +83312,11 @@
       <c r="KU89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -83976,8 +84243,11 @@
       <c r="KU90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KW90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -84904,8 +85174,11 @@
       <c r="KU91" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KW91" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -85832,8 +86105,11 @@
       <c r="KU92" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="2" t="n">
         <v>300</v>
+      </c>
+      <c r="KW92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -86760,8 +87036,11 @@
       <c r="KU93" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="KW93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -87688,8 +87967,11 @@
       <c r="KU94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KW94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -88616,8 +88898,11 @@
       <c r="KU95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KW95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -89544,8 +89829,11 @@
       <c r="KU96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KW96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -90472,8 +90760,11 @@
       <c r="KU97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -91400,8 +91691,11 @@
       <c r="KU98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KW98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -92328,8 +92622,11 @@
       <c r="KU99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KW99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -93256,8 +93553,11 @@
       <c r="KU100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -94184,8 +94484,11 @@
       <c r="KU101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KW101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -95112,8 +95415,11 @@
       <c r="KU102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="KW102" t="n">
+        <v>69.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Brisbane_stats.xlsx
+++ b/AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KW102"/>
+  <dimension ref="A1:KX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1387,8 +1387,11 @@
       <c r="KV1" s="2" t="n">
         <v>10754</v>
       </c>
-      <c r="KW1" t="n">
+      <c r="KW1" s="2" t="n">
         <v>10761</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>10769</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -2318,7 +2321,10 @@
       <c r="KV2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3249,8 +3255,11 @@
       <c r="KV3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KW3" t="n">
+      <c r="KW3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -4180,8 +4189,11 @@
       <c r="KV4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KW4" t="n">
+      <c r="KW4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -5111,7 +5123,10 @@
       <c r="KV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KW5" t="n">
+      <c r="KW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6042,8 +6057,11 @@
       <c r="KV6" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KW6" t="n">
+      <c r="KW6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -6973,8 +6991,11 @@
       <c r="KV7" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="KW7" t="n">
+      <c r="KW7" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -7904,8 +7925,11 @@
       <c r="KV8" s="2" t="n">
         <v>-54</v>
       </c>
-      <c r="KW8" t="n">
+      <c r="KW8" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX8" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -8835,8 +8859,11 @@
       <c r="KV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KW9" t="n">
+      <c r="KW9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KX9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -9766,8 +9793,11 @@
       <c r="KV10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KW10" t="n">
+      <c r="KW10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -10697,8 +10727,11 @@
       <c r="KV11" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="KW11" t="n">
+      <c r="KW11" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="KX11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -11628,8 +11661,11 @@
       <c r="KV12" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KW12" t="n">
+      <c r="KW12" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KX12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -12559,8 +12595,11 @@
       <c r="KV13" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="KW13" t="n">
+      <c r="KW13" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="KX13" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -13490,8 +13529,11 @@
       <c r="KV14" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="KW14" t="n">
+      <c r="KW14" s="2" t="n">
         <v>2.38</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -14421,8 +14463,11 @@
       <c r="KV15" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KW15" t="n">
+      <c r="KW15" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KX15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -15352,8 +15397,11 @@
       <c r="KV16" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KW16" t="n">
+      <c r="KW16" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KX16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -16283,8 +16331,11 @@
       <c r="KV17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KW17" t="n">
+      <c r="KW17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KX17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -17214,8 +17265,11 @@
       <c r="KV18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KW18" t="n">
+      <c r="KW18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KX18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -18145,8 +18199,11 @@
       <c r="KV19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KW19" t="n">
+      <c r="KW19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KX19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -19076,8 +19133,11 @@
       <c r="KV20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KW20" t="n">
+      <c r="KW20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KX20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -20007,8 +20067,11 @@
       <c r="KV21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW21" t="n">
+      <c r="KW21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -20938,8 +21001,11 @@
       <c r="KV22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KW22" t="n">
+      <c r="KW22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -21869,8 +21935,11 @@
       <c r="KV23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KW23" t="n">
+      <c r="KW23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KX23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -22800,8 +22869,11 @@
       <c r="KV24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KW24" t="n">
+      <c r="KW24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KX24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -23731,8 +23803,11 @@
       <c r="KV25" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="KW25" t="n">
+      <c r="KW25" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KX25" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -24662,8 +24737,11 @@
       <c r="KV26" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KW26" t="n">
+      <c r="KW26" s="2" t="n">
         <v>24.14</v>
+      </c>
+      <c r="KX26" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -25593,8 +25671,11 @@
       <c r="KV27" s="2" t="n">
         <v>15.53</v>
       </c>
-      <c r="KW27" t="n">
+      <c r="KW27" s="2" t="n">
         <v>14.7</v>
+      </c>
+      <c r="KX27" t="n">
+        <v>18.67</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -26524,8 +26605,11 @@
       <c r="KV28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KW28" t="n">
+      <c r="KW28" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KX28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -27455,8 +27539,11 @@
       <c r="KV29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KW29" t="n">
+      <c r="KW29" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KX29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -28386,8 +28473,11 @@
       <c r="KV30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KW30" t="n">
+      <c r="KW30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KX30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -29317,8 +29407,11 @@
       <c r="KV31" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KW31" t="n">
+      <c r="KW31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KX31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -30248,8 +30341,11 @@
       <c r="KV32" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="KW32" t="n">
+      <c r="KW32" s="2" t="n">
         <v>2.57</v>
+      </c>
+      <c r="KX32" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -31179,8 +31275,11 @@
       <c r="KV33" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="KW33" t="n">
+      <c r="KW33" s="2" t="n">
         <v>4.21</v>
+      </c>
+      <c r="KX33" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -32110,8 +32209,11 @@
       <c r="KV34" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KW34" t="n">
+      <c r="KW34" s="2" t="n">
         <v>35.6</v>
+      </c>
+      <c r="KX34" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -33041,8 +33143,11 @@
       <c r="KV35" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="KW35" t="n">
+      <c r="KW35" s="2" t="n">
         <v>23.7</v>
+      </c>
+      <c r="KX35" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -33972,8 +34077,11 @@
       <c r="KV36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KW36" t="n">
+      <c r="KW36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KX36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -34903,8 +35011,11 @@
       <c r="KV37" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="KW37" t="n">
+      <c r="KW37" s="2" t="n">
         <v>89.8</v>
+      </c>
+      <c r="KX37" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -35834,8 +35945,11 @@
       <c r="KV38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KW38" t="n">
+      <c r="KW38" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="KX38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -36765,8 +36879,11 @@
       <c r="KV39" s="2" t="n">
         <v>103.7</v>
       </c>
-      <c r="KW39" t="n">
+      <c r="KW39" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="KX39" t="n">
+        <v>105.1</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -37696,7 +37813,10 @@
       <c r="KV40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW40" t="n">
+      <c r="KW40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KX40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38627,8 +38747,11 @@
       <c r="KV41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW41" t="n">
+      <c r="KW41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KX41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -39558,7 +39681,10 @@
       <c r="KV42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW42" t="n">
+      <c r="KW42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KX42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40489,8 +40615,11 @@
       <c r="KV43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW43" t="n">
+      <c r="KW43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -41420,8 +41549,11 @@
       <c r="KV44" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KW44" t="n">
+      <c r="KW44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KX44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -42351,8 +42483,11 @@
       <c r="KV45" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KW45" t="n">
+      <c r="KW45" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="KX45" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -43282,8 +43417,11 @@
       <c r="KV46" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="KW46" t="n">
+      <c r="KW46" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="KX46" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -44213,8 +44351,11 @@
       <c r="KV47" s="2" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="KW47" t="n">
+      <c r="KW47" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="KX47" t="n">
+        <v>70.5</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -45144,8 +45285,11 @@
       <c r="KV48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KW48" t="n">
+      <c r="KW48" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KX48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -46075,8 +46219,11 @@
       <c r="KV49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW49" t="n">
+      <c r="KW49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KX49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -47006,8 +47153,11 @@
       <c r="KV50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW50" t="n">
+      <c r="KW50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KX50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -47937,8 +48087,11 @@
       <c r="KV51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KW51" t="n">
+      <c r="KW51" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KX51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -48868,8 +49021,11 @@
       <c r="KV52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KW52" t="n">
+      <c r="KW52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KX52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -49799,7 +49955,10 @@
       <c r="KV53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KW53" t="n">
+      <c r="KW53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KX53" t="n">
         <v>56</v>
       </c>
     </row>
@@ -50730,8 +50889,11 @@
       <c r="KV54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KW54" t="n">
+      <c r="KW54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KX54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -51661,8 +51823,11 @@
       <c r="KV55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW55" t="n">
+      <c r="KW55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -52592,8 +52757,11 @@
       <c r="KV56" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="KW56" t="n">
+      <c r="KW56" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KX56" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -53523,8 +53691,11 @@
       <c r="KV57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KW57" t="n">
+      <c r="KW57" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="KX57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -54454,8 +54625,11 @@
       <c r="KV58" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="KW58" t="n">
+      <c r="KW58" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KX58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -55385,8 +55559,11 @@
       <c r="KV59" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="KW59" t="n">
+      <c r="KW59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="KX59" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -56316,8 +56493,11 @@
       <c r="KV60" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="KW60" t="n">
+      <c r="KW60" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="KX60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -57247,8 +57427,11 @@
       <c r="KV61" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="KW61" t="n">
+      <c r="KW61" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KX61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -58178,8 +58361,11 @@
       <c r="KV62" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KW62" t="n">
+      <c r="KW62" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KX62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -59109,8 +59295,11 @@
       <c r="KV63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KW63" t="n">
+      <c r="KW63" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KX63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -60040,8 +60229,11 @@
       <c r="KV64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KW64" t="n">
+      <c r="KW64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KX64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -60971,8 +61163,11 @@
       <c r="KV65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KW65" t="n">
+      <c r="KW65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KX65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -61902,8 +62097,11 @@
       <c r="KV66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KW66" t="n">
+      <c r="KW66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KX66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -62833,8 +63031,11 @@
       <c r="KV67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KW67" t="n">
+      <c r="KW67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KX67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -63764,8 +63965,11 @@
       <c r="KV68" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KW68" t="n">
+      <c r="KW68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KX68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -64695,7 +64899,10 @@
       <c r="KV69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KW69" t="n">
+      <c r="KW69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65626,7 +65833,10 @@
       <c r="KV70" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KW70" t="n">
+      <c r="KW70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KX70" t="n">
         <v>17</v>
       </c>
     </row>
@@ -66557,8 +66767,11 @@
       <c r="KV71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KW71" t="n">
+      <c r="KW71" s="2" t="n">
         <v>76.5</v>
+      </c>
+      <c r="KX71" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -67488,8 +67701,11 @@
       <c r="KV72" s="2" t="n">
         <v>22.5</v>
       </c>
-      <c r="KW72" t="n">
+      <c r="KW72" s="2" t="n">
         <v>26.92</v>
+      </c>
+      <c r="KX72" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -68419,8 +68635,11 @@
       <c r="KV73" s="2" t="n">
         <v>11.25</v>
       </c>
-      <c r="KW73" t="n">
+      <c r="KW73" s="2" t="n">
         <v>20.59</v>
+      </c>
+      <c r="KX73" t="n">
+        <v>22.65</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -69350,8 +69569,11 @@
       <c r="KV74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KW74" t="n">
+      <c r="KW74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KX74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -70281,8 +70503,11 @@
       <c r="KV75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KW75" t="n">
+      <c r="KW75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KX75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -71212,8 +71437,11 @@
       <c r="KV76" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KW76" t="n">
+      <c r="KW76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KX76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -72143,8 +72371,11 @@
       <c r="KV77" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KW77" t="n">
+      <c r="KW77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KX77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -73074,8 +73305,11 @@
       <c r="KV78" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="KW78" t="n">
+      <c r="KW78" s="2" t="n">
         <v>3.18</v>
+      </c>
+      <c r="KX78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -74005,8 +74239,11 @@
       <c r="KV79" s="2" t="n">
         <v>3.61</v>
       </c>
-      <c r="KW79" t="n">
+      <c r="KW79" s="2" t="n">
         <v>4.15</v>
+      </c>
+      <c r="KX79" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -74936,8 +75173,11 @@
       <c r="KV80" s="2" t="n">
         <v>52.3</v>
       </c>
-      <c r="KW80" t="n">
+      <c r="KW80" s="2" t="n">
         <v>29.6</v>
+      </c>
+      <c r="KX80" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -75867,8 +76107,11 @@
       <c r="KV81" s="2" t="n">
         <v>27.7</v>
       </c>
-      <c r="KW81" t="n">
+      <c r="KW81" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="KX81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -76798,8 +77041,11 @@
       <c r="KV82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KW82" t="n">
+      <c r="KW82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KX82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -77729,8 +77975,11 @@
       <c r="KV83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KW83" t="n">
+      <c r="KW83" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="KX83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -78660,8 +78909,11 @@
       <c r="KV84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KW84" t="n">
+      <c r="KW84" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="KX84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -79591,8 +79843,11 @@
       <c r="KV85" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KW85" t="n">
+      <c r="KW85" s="2" t="n">
         <v>123.7</v>
+      </c>
+      <c r="KX85" t="n">
+        <v>110.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -80522,8 +80777,11 @@
       <c r="KV86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW86" t="n">
+      <c r="KW86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KX86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -81453,7 +81711,10 @@
       <c r="KV87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KW87" t="n">
+      <c r="KW87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -82384,8 +82645,11 @@
       <c r="KV88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW88" t="n">
+      <c r="KW88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -83315,8 +83579,11 @@
       <c r="KV89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW89" t="n">
+      <c r="KW89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KX89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -84246,8 +84513,11 @@
       <c r="KV90" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KW90" t="n">
+      <c r="KW90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KX90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -85177,8 +85447,11 @@
       <c r="KV91" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="KW91" t="n">
+      <c r="KW91" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="KX91" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -86108,8 +86381,11 @@
       <c r="KV92" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="KW92" t="n">
+      <c r="KW92" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KX92" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -87039,8 +87315,11 @@
       <c r="KV93" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="KW93" t="n">
+      <c r="KW93" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KX93" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -87970,8 +88249,11 @@
       <c r="KV94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KW94" t="n">
+      <c r="KW94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KX94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -88901,8 +89183,11 @@
       <c r="KV95" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KW95" t="n">
+      <c r="KW95" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KX95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -89832,8 +90117,11 @@
       <c r="KV96" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KW96" t="n">
+      <c r="KW96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KX96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -90763,8 +91051,11 @@
       <c r="KV97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KW97" t="n">
+      <c r="KW97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KX97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -91694,8 +91985,11 @@
       <c r="KV98" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KW98" t="n">
+      <c r="KW98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KX98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -92625,8 +92919,11 @@
       <c r="KV99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KW99" t="n">
+      <c r="KW99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KX99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -93556,8 +93853,11 @@
       <c r="KV100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW100" t="n">
+      <c r="KW100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KX100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -94487,8 +94787,11 @@
       <c r="KV101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KW101" t="n">
+      <c r="KW101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KX101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -95418,8 +95721,11 @@
       <c r="KV102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KW102" t="n">
+      <c r="KW102" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="KX102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Brisbane_stats.xlsx
+++ b/AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1390,8 +1390,11 @@
       <c r="KW1" s="2" t="n">
         <v>10761</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="2" t="n">
         <v>10769</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10778</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -2324,7 +2327,10 @@
       <c r="KW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3258,8 +3264,11 @@
       <c r="KW3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -4192,8 +4201,11 @@
       <c r="KW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -5126,7 +5138,10 @@
       <c r="KW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6060,8 +6075,11 @@
       <c r="KW6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -6994,8 +7012,11 @@
       <c r="KW7" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -7928,8 +7949,11 @@
       <c r="KW8" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="2" t="n">
         <v>-14</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -8862,8 +8886,11 @@
       <c r="KW9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -9796,8 +9823,11 @@
       <c r="KW10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -10730,8 +10760,11 @@
       <c r="KW11" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -11664,8 +11697,11 @@
       <c r="KW12" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -12598,8 +12634,11 @@
       <c r="KW13" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -13532,8 +13571,11 @@
       <c r="KW14" s="2" t="n">
         <v>2.38</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="2" t="n">
         <v>1.8</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -14466,8 +14508,11 @@
       <c r="KW15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -15400,8 +15445,11 @@
       <c r="KW16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -16334,8 +16382,11 @@
       <c r="KW17" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -17268,8 +17319,11 @@
       <c r="KW18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -18202,7 +18256,10 @@
       <c r="KW19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KY19" t="n">
         <v>22</v>
       </c>
     </row>
@@ -19136,8 +19193,11 @@
       <c r="KW20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -20070,8 +20130,11 @@
       <c r="KW21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -21004,8 +21067,11 @@
       <c r="KW22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -21938,7 +22004,10 @@
       <c r="KW23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22872,8 +22941,11 @@
       <c r="KW24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -23806,8 +23878,11 @@
       <c r="KW25" s="2" t="n">
         <v>60.9</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -24740,8 +24815,11 @@
       <c r="KW26" s="2" t="n">
         <v>24.14</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>19.11</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -25674,8 +25752,11 @@
       <c r="KW27" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="2" t="n">
         <v>18.67</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>13.23</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -26608,8 +26689,11 @@
       <c r="KW28" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -27542,8 +27626,11 @@
       <c r="KW29" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -28476,8 +28563,11 @@
       <c r="KW30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -29410,8 +29500,11 @@
       <c r="KW31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -30344,8 +30437,11 @@
       <c r="KW32" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -31278,8 +31374,11 @@
       <c r="KW33" s="2" t="n">
         <v>4.21</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="2" t="n">
         <v>6.86</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -32212,8 +32311,11 @@
       <c r="KW34" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -33146,8 +33248,11 @@
       <c r="KW35" s="2" t="n">
         <v>23.7</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="2" t="n">
         <v>14.6</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -34080,8 +34185,11 @@
       <c r="KW36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -35014,8 +35122,11 @@
       <c r="KW37" s="2" t="n">
         <v>89.8</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="2" t="n">
         <v>89.2</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -35948,8 +36059,11 @@
       <c r="KW38" s="2" t="n">
         <v>26.49</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -36882,8 +36996,11 @@
       <c r="KW39" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="2" t="n">
         <v>105.1</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>105.2</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -37816,8 +37933,11 @@
       <c r="KW40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -38750,8 +38870,11 @@
       <c r="KW41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -39684,7 +39807,10 @@
       <c r="KW42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KY42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40618,7 +40744,10 @@
       <c r="KW43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KY43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -41552,8 +41681,11 @@
       <c r="KW44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -42486,8 +42618,11 @@
       <c r="KW45" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -43420,8 +43555,11 @@
       <c r="KW46" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -44354,8 +44492,11 @@
       <c r="KW47" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="2" t="n">
         <v>70.5</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -45288,8 +45429,11 @@
       <c r="KW48" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -46222,8 +46366,11 @@
       <c r="KW49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -47156,8 +47303,11 @@
       <c r="KW50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -48090,8 +48240,11 @@
       <c r="KW51" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -49024,8 +49177,11 @@
       <c r="KW52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -49958,8 +50114,11 @@
       <c r="KW53" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -50892,7 +51051,10 @@
       <c r="KW54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51826,8 +51988,11 @@
       <c r="KW55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -52760,8 +52925,11 @@
       <c r="KW56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -53694,8 +53862,11 @@
       <c r="KW57" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -54628,8 +54799,11 @@
       <c r="KW58" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -55562,8 +55736,11 @@
       <c r="KW59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -56496,8 +56673,11 @@
       <c r="KW60" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -57430,8 +57610,11 @@
       <c r="KW61" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -58364,8 +58547,11 @@
       <c r="KW62" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -59298,8 +59484,11 @@
       <c r="KW63" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -60232,7 +60421,10 @@
       <c r="KW64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KY64" t="n">
         <v>22</v>
       </c>
     </row>
@@ -61166,8 +61358,11 @@
       <c r="KW65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -62100,8 +62295,11 @@
       <c r="KW66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -63034,8 +63232,11 @@
       <c r="KW67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -63968,8 +64169,11 @@
       <c r="KW68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -64902,8 +65106,11 @@
       <c r="KW69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -65836,8 +66043,11 @@
       <c r="KW70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -66770,8 +66980,11 @@
       <c r="KW71" s="2" t="n">
         <v>76.5</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="2" t="n">
         <v>58.8</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -67704,8 +67917,11 @@
       <c r="KW72" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="2" t="n">
         <v>38.5</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>33.36</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -68638,8 +68854,11 @@
       <c r="KW73" s="2" t="n">
         <v>20.59</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="2" t="n">
         <v>22.65</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>13.11</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -69572,8 +69791,11 @@
       <c r="KW74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -70506,8 +70728,11 @@
       <c r="KW75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -71440,8 +71665,11 @@
       <c r="KW76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -72374,8 +72602,11 @@
       <c r="KW77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -73308,8 +73539,11 @@
       <c r="KW78" s="2" t="n">
         <v>3.18</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -74242,8 +74476,11 @@
       <c r="KW79" s="2" t="n">
         <v>4.15</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="2" t="n">
         <v>5.1</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -75176,8 +75413,11 @@
       <c r="KW80" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="2" t="n">
         <v>31.4</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -76110,8 +76350,11 @@
       <c r="KW81" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -77044,8 +77287,11 @@
       <c r="KW82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -77978,8 +78224,11 @@
       <c r="KW83" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -78912,7 +79161,10 @@
       <c r="KW84" s="2" t="n">
         <v>26.49</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="KY84" t="n">
         <v>26.8</v>
       </c>
     </row>
@@ -79846,8 +80098,11 @@
       <c r="KW85" s="2" t="n">
         <v>123.7</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="2" t="n">
         <v>110.7</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -80780,8 +81035,11 @@
       <c r="KW86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -81714,7 +81972,10 @@
       <c r="KW87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -82648,8 +82909,11 @@
       <c r="KW88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -83582,8 +83846,11 @@
       <c r="KW89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -84516,8 +84783,11 @@
       <c r="KW90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -85450,8 +85720,11 @@
       <c r="KW91" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -86384,8 +86657,11 @@
       <c r="KW92" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="2" t="n">
         <v>284</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -87318,8 +87594,11 @@
       <c r="KW93" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="2" t="n">
         <v>73.8</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -88252,8 +88531,11 @@
       <c r="KW94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -89186,7 +89468,10 @@
       <c r="KW95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KY95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -90120,7 +90405,10 @@
       <c r="KW96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KY96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -91054,8 +91342,11 @@
       <c r="KW97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -91988,8 +92279,11 @@
       <c r="KW98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -92922,8 +93216,11 @@
       <c r="KW99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -93856,8 +94153,11 @@
       <c r="KW100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -94790,8 +95090,11 @@
       <c r="KW101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -95724,8 +96027,11 @@
       <c r="KW102" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Brisbane_stats.xlsx
+++ b/AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KY102"/>
+  <dimension ref="A1:KZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1393,8 +1393,11 @@
       <c r="KX1" s="2" t="n">
         <v>10769</v>
       </c>
-      <c r="KY1" t="n">
+      <c r="KY1" s="2" t="n">
         <v>10778</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>10959</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -2330,7 +2333,10 @@
       <c r="KX2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KZ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3267,8 +3273,11 @@
       <c r="KX3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="KY3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -4204,7 +4213,10 @@
       <c r="KX4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="KY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5141,7 +5153,10 @@
       <c r="KX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY5" t="n">
+      <c r="KY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6078,8 +6093,11 @@
       <c r="KX6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KY6" t="n">
+      <c r="KY6" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -7015,8 +7033,11 @@
       <c r="KX7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KY7" t="n">
+      <c r="KY7" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -7952,8 +7973,11 @@
       <c r="KX8" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="KY8" t="n">
+      <c r="KY8" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KZ8" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -8889,7 +8913,10 @@
       <c r="KX9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY9" t="n">
+      <c r="KY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9826,8 +9853,11 @@
       <c r="KX10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KY10" t="n">
+      <c r="KY10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -10763,8 +10793,11 @@
       <c r="KX11" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="KY11" t="n">
+      <c r="KY11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -11700,8 +11733,11 @@
       <c r="KX12" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KY12" t="n">
+      <c r="KY12" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="KZ12" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -12637,8 +12673,11 @@
       <c r="KX13" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="KY13" t="n">
+      <c r="KY13" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="KZ13" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -13574,8 +13613,11 @@
       <c r="KX14" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="KY14" t="n">
+      <c r="KY14" s="2" t="n">
         <v>1.67</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -14511,8 +14553,11 @@
       <c r="KX15" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KY15" t="n">
+      <c r="KY15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -15448,8 +15493,11 @@
       <c r="KX16" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KY16" t="n">
+      <c r="KY16" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -16385,8 +16433,11 @@
       <c r="KX17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY17" t="n">
+      <c r="KY17" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -17322,8 +17373,11 @@
       <c r="KX18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KY18" t="n">
+      <c r="KY18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -18259,8 +18313,11 @@
       <c r="KX19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KY19" t="n">
+      <c r="KY19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KZ19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -19196,8 +19253,11 @@
       <c r="KX20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY20" t="n">
+      <c r="KY20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KZ20" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -20133,8 +20193,11 @@
       <c r="KX21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KY21" t="n">
+      <c r="KY21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ21" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -21070,8 +21133,11 @@
       <c r="KX22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY22" t="n">
+      <c r="KY22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ22" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -22007,8 +22073,11 @@
       <c r="KX23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY23" t="n">
+      <c r="KY23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -22944,8 +23013,11 @@
       <c r="KX24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KY24" t="n">
+      <c r="KY24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -23881,8 +23953,11 @@
       <c r="KX25" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="KY25" t="n">
+      <c r="KY25" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="KZ25" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -24818,8 +24893,11 @@
       <c r="KX26" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KY26" t="n">
+      <c r="KY26" s="2" t="n">
         <v>19.11</v>
+      </c>
+      <c r="KZ26" t="n">
+        <v>17.23</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -25755,8 +25833,11 @@
       <c r="KX27" s="2" t="n">
         <v>18.67</v>
       </c>
-      <c r="KY27" t="n">
+      <c r="KY27" s="2" t="n">
         <v>13.23</v>
+      </c>
+      <c r="KZ27" t="n">
+        <v>9.02</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -26692,8 +26773,11 @@
       <c r="KX28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KY28" t="n">
+      <c r="KY28" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KZ28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -27629,8 +27713,11 @@
       <c r="KX29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KY29" t="n">
+      <c r="KY29" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KZ29" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -28566,8 +28653,11 @@
       <c r="KX30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY30" t="n">
+      <c r="KY30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KZ30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -29503,8 +29593,11 @@
       <c r="KX31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KY31" t="n">
+      <c r="KY31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KZ31" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -30440,8 +30533,11 @@
       <c r="KX32" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="KY32" t="n">
+      <c r="KY32" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="KZ32" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -31377,7 +31473,10 @@
       <c r="KX33" s="2" t="n">
         <v>6.86</v>
       </c>
-      <c r="KY33" t="n">
+      <c r="KY33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32314,8 +32413,11 @@
       <c r="KX34" s="2" t="n">
         <v>35.4</v>
       </c>
-      <c r="KY34" t="n">
+      <c r="KY34" s="2" t="n">
         <v>46.3</v>
+      </c>
+      <c r="KZ34" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -33251,7 +33353,10 @@
       <c r="KX35" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="KY35" t="n">
+      <c r="KY35" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="KZ35" t="n">
         <v>33.3</v>
       </c>
     </row>
@@ -34188,8 +34293,11 @@
       <c r="KX36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KY36" t="n">
+      <c r="KY36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KZ36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -35125,8 +35233,11 @@
       <c r="KX37" s="2" t="n">
         <v>89.2</v>
       </c>
-      <c r="KY37" t="n">
+      <c r="KY37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="KZ37" t="n">
+        <v>89.7</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -36062,8 +36173,11 @@
       <c r="KX38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KY38" t="n">
+      <c r="KY38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KZ38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -36999,8 +37113,11 @@
       <c r="KX39" s="2" t="n">
         <v>105.1</v>
       </c>
-      <c r="KY39" t="n">
+      <c r="KY39" s="2" t="n">
         <v>105.2</v>
+      </c>
+      <c r="KZ39" t="n">
+        <v>114.4</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -37936,8 +38053,11 @@
       <c r="KX40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY40" t="n">
+      <c r="KY40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -38873,7 +38993,10 @@
       <c r="KX41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY41" t="n">
+      <c r="KY41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39810,7 +39933,10 @@
       <c r="KX42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY42" t="n">
+      <c r="KY42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KZ42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40747,8 +40873,11 @@
       <c r="KX43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY43" t="n">
+      <c r="KY43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KZ43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -41684,8 +41813,11 @@
       <c r="KX44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KY44" t="n">
+      <c r="KY44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -42621,8 +42753,11 @@
       <c r="KX45" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="KY45" t="n">
+      <c r="KY45" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="KZ45" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -43558,8 +43693,11 @@
       <c r="KX46" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="KY46" t="n">
+      <c r="KY46" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="KZ46" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -44495,8 +44633,11 @@
       <c r="KX47" s="2" t="n">
         <v>70.5</v>
       </c>
-      <c r="KY47" t="n">
+      <c r="KY47" s="2" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KZ47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -45432,8 +45573,11 @@
       <c r="KX48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KY48" t="n">
+      <c r="KY48" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KZ48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -46369,8 +46513,11 @@
       <c r="KX49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KY49" t="n">
+      <c r="KY49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -47306,8 +47453,11 @@
       <c r="KX50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KY50" t="n">
+      <c r="KY50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KZ50" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -48243,8 +48393,11 @@
       <c r="KX51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KY51" t="n">
+      <c r="KY51" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KZ51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -49180,8 +49333,11 @@
       <c r="KX52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY52" t="n">
+      <c r="KY52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KZ52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -50117,8 +50273,11 @@
       <c r="KX53" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KY53" t="n">
+      <c r="KY53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KZ53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -51054,8 +51213,11 @@
       <c r="KX54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY54" t="n">
+      <c r="KY54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -51991,8 +52153,11 @@
       <c r="KX55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KY55" t="n">
+      <c r="KY55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ55" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -52928,8 +53093,11 @@
       <c r="KX56" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="KY56" t="n">
+      <c r="KY56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KZ56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -53865,8 +54033,11 @@
       <c r="KX57" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="KY57" t="n">
+      <c r="KY57" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="KZ57" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -54802,8 +54973,11 @@
       <c r="KX58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KY58" t="n">
+      <c r="KY58" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="KZ58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -55739,8 +55913,11 @@
       <c r="KX59" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="KY59" t="n">
+      <c r="KY59" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="KZ59" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -56676,8 +56853,11 @@
       <c r="KX60" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="KY60" t="n">
+      <c r="KY60" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="KZ60" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -57613,8 +57793,11 @@
       <c r="KX61" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KY61" t="n">
+      <c r="KY61" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KZ61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -58550,8 +58733,11 @@
       <c r="KX62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KY62" t="n">
+      <c r="KY62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KZ62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -59487,8 +59673,11 @@
       <c r="KX63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KY63" t="n">
+      <c r="KY63" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KZ63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -60424,8 +60613,11 @@
       <c r="KX64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KY64" t="n">
+      <c r="KY64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KZ64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -61361,8 +61553,11 @@
       <c r="KX65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KY65" t="n">
+      <c r="KY65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KZ65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -62298,8 +62493,11 @@
       <c r="KX66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY66" t="n">
+      <c r="KY66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -63235,8 +63433,11 @@
       <c r="KX67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY67" t="n">
+      <c r="KY67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -64172,8 +64373,11 @@
       <c r="KX68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY68" t="n">
+      <c r="KY68" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -65109,8 +65313,11 @@
       <c r="KX69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY69" t="n">
+      <c r="KY69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -66046,8 +66253,11 @@
       <c r="KX70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KY70" t="n">
+      <c r="KY70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KZ70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -66983,8 +67193,11 @@
       <c r="KX71" s="2" t="n">
         <v>58.8</v>
       </c>
-      <c r="KY71" t="n">
+      <c r="KY71" s="2" t="n">
         <v>39.3</v>
+      </c>
+      <c r="KZ71" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -67920,8 +68133,11 @@
       <c r="KX72" s="2" t="n">
         <v>38.5</v>
       </c>
-      <c r="KY72" t="n">
+      <c r="KY72" s="2" t="n">
         <v>33.36</v>
+      </c>
+      <c r="KZ72" t="n">
+        <v>28.42</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -68857,8 +69073,11 @@
       <c r="KX73" s="2" t="n">
         <v>22.65</v>
       </c>
-      <c r="KY73" t="n">
+      <c r="KY73" s="2" t="n">
         <v>13.11</v>
+      </c>
+      <c r="KZ73" t="n">
+        <v>20.06</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -69794,8 +70013,11 @@
       <c r="KX74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KY74" t="n">
+      <c r="KY74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -70731,8 +70953,11 @@
       <c r="KX75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KY75" t="n">
+      <c r="KY75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KZ75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -71668,8 +71893,11 @@
       <c r="KX76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY76" t="n">
+      <c r="KY76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -72605,8 +72833,11 @@
       <c r="KX77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KY77" t="n">
+      <c r="KY77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KZ77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -73542,8 +73773,11 @@
       <c r="KX78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KY78" t="n">
+      <c r="KY78" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="KZ78" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -74479,8 +74713,11 @@
       <c r="KX79" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="KY79" t="n">
+      <c r="KY79" s="2" t="n">
         <v>5.18</v>
+      </c>
+      <c r="KZ79" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -75416,8 +75653,11 @@
       <c r="KX80" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="KY80" t="n">
+      <c r="KY80" s="2" t="n">
         <v>43.9</v>
+      </c>
+      <c r="KZ80" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -76353,8 +76593,11 @@
       <c r="KX81" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="KY81" t="n">
+      <c r="KY81" s="2" t="n">
         <v>19.3</v>
+      </c>
+      <c r="KZ81" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -77290,8 +77533,11 @@
       <c r="KX82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KY82" t="n">
+      <c r="KY82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="KZ82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -78227,8 +78473,11 @@
       <c r="KX83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KY83" t="n">
+      <c r="KY83" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KZ83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -79164,8 +79413,11 @@
       <c r="KX84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KY84" t="n">
+      <c r="KY84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KZ84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -80101,8 +80353,11 @@
       <c r="KX85" s="2" t="n">
         <v>110.7</v>
       </c>
-      <c r="KY85" t="n">
+      <c r="KY85" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="KZ85" t="n">
+        <v>110.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -81038,8 +81293,11 @@
       <c r="KX86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY86" t="n">
+      <c r="KY86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -81975,8 +82233,11 @@
       <c r="KX87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY87" t="n">
+      <c r="KY87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -82912,8 +83173,11 @@
       <c r="KX88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY88" t="n">
+      <c r="KY88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -83849,8 +84113,11 @@
       <c r="KX89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY89" t="n">
+      <c r="KY89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -84786,8 +85053,11 @@
       <c r="KX90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KY90" t="n">
+      <c r="KY90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KZ90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -85723,8 +85993,11 @@
       <c r="KX91" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="KY91" t="n">
+      <c r="KY91" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KZ91" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -86660,8 +86933,11 @@
       <c r="KX92" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="KY92" t="n">
+      <c r="KY92" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="KZ92" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -87597,8 +87873,11 @@
       <c r="KX93" s="2" t="n">
         <v>73.8</v>
       </c>
-      <c r="KY93" t="n">
+      <c r="KY93" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="KZ93" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -88534,8 +88813,11 @@
       <c r="KX94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KY94" t="n">
+      <c r="KY94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KZ94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -89471,8 +89753,11 @@
       <c r="KX95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY95" t="n">
+      <c r="KY95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -90408,8 +90693,11 @@
       <c r="KX96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY96" t="n">
+      <c r="KY96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -91345,8 +91633,11 @@
       <c r="KX97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KY97" t="n">
+      <c r="KY97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -92282,8 +92573,11 @@
       <c r="KX98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY98" t="n">
+      <c r="KY98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -93219,8 +93513,11 @@
       <c r="KX99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KY99" t="n">
+      <c r="KY99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KZ99" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -94156,8 +94453,11 @@
       <c r="KX100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY100" t="n">
+      <c r="KY100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -95093,8 +95393,11 @@
       <c r="KX101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY101" t="n">
+      <c r="KY101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -96030,8 +96333,11 @@
       <c r="KX102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KY102" t="n">
+      <c r="KY102" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KZ102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Brisbane_stats.xlsx
+++ b/AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KZ102"/>
+  <dimension ref="A1:LC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1396,8 +1396,17 @@
       <c r="KY1" s="2" t="n">
         <v>10778</v>
       </c>
-      <c r="KZ1" t="n">
+      <c r="KZ1" s="2" t="n">
         <v>10959</v>
+      </c>
+      <c r="LA1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LB1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>10798</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -2336,7 +2345,16 @@
       <c r="KY2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="KZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3276,8 +3294,17 @@
       <c r="KY3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="KZ3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -4216,8 +4243,17 @@
       <c r="KY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="KZ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -5156,8 +5192,17 @@
       <c r="KY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ5" t="n">
+      <c r="KZ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -6096,8 +6141,17 @@
       <c r="KY6" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KZ6" t="n">
+      <c r="KZ6" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="LA6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LB6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -7036,8 +7090,17 @@
       <c r="KY7" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KZ7" t="n">
+      <c r="KZ7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="LA7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LB7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -7976,8 +8039,17 @@
       <c r="KY8" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KZ8" t="n">
+      <c r="KZ8" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="LA8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LB8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LC8" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -8916,7 +8988,16 @@
       <c r="KY9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ9" t="n">
+      <c r="KZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9856,8 +9937,17 @@
       <c r="KY10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ10" t="n">
+      <c r="KZ10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -10796,8 +10886,17 @@
       <c r="KY11" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KZ11" t="n">
+      <c r="KZ11" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="LA11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LB11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LC11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -11736,8 +11835,17 @@
       <c r="KY12" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="KZ12" t="n">
+      <c r="KZ12" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="LA12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LB12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LC12" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -12676,8 +12784,17 @@
       <c r="KY13" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="KZ13" t="n">
+      <c r="KZ13" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="LA13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LB13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LC13" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -13616,8 +13733,17 @@
       <c r="KY14" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="KZ14" t="n">
+      <c r="KZ14" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="LA14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LB14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LC14" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -14556,8 +14682,17 @@
       <c r="KY15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KZ15" t="n">
+      <c r="KZ15" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="LA15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LB15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LC15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -15496,8 +15631,17 @@
       <c r="KY16" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KZ16" t="n">
+      <c r="KZ16" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LB16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LC16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -16436,8 +16580,17 @@
       <c r="KY17" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KZ17" t="n">
+      <c r="KZ17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="LA17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LB17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LC17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -17376,8 +17529,17 @@
       <c r="KY18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KZ18" t="n">
+      <c r="KZ18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LA18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LC18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -18316,8 +18478,17 @@
       <c r="KY19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KZ19" t="n">
+      <c r="KZ19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LA19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -19256,8 +19427,17 @@
       <c r="KY20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KZ20" t="n">
+      <c r="KZ20" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LA20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LC20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -20196,8 +20376,17 @@
       <c r="KY21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KZ21" t="n">
+      <c r="KZ21" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LA21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -21136,8 +21325,17 @@
       <c r="KY22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ22" t="n">
+      <c r="KZ22" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LA22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LC22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -22076,8 +22274,17 @@
       <c r="KY23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ23" t="n">
+      <c r="KZ23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -23016,8 +23223,17 @@
       <c r="KY24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KZ24" t="n">
+      <c r="KZ24" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LA24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LB24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LC24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -23956,8 +24172,17 @@
       <c r="KY25" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="KZ25" t="n">
+      <c r="KZ25" s="2" t="n">
         <v>52.4</v>
+      </c>
+      <c r="LA25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LB25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LC25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -24896,8 +25121,17 @@
       <c r="KY26" s="2" t="n">
         <v>19.11</v>
       </c>
-      <c r="KZ26" t="n">
+      <c r="KZ26" s="2" t="n">
         <v>17.23</v>
+      </c>
+      <c r="LA26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LB26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LC26" t="n">
+        <v>19.81</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -25836,8 +26070,17 @@
       <c r="KY27" s="2" t="n">
         <v>13.23</v>
       </c>
-      <c r="KZ27" t="n">
+      <c r="KZ27" s="2" t="n">
         <v>9.02</v>
+      </c>
+      <c r="LA27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LB27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LC27" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -26776,8 +27019,17 @@
       <c r="KY28" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KZ28" t="n">
+      <c r="KZ28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LB28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LC28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -27716,8 +27968,17 @@
       <c r="KY29" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KZ29" t="n">
+      <c r="KZ29" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LA29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LB29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC29" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -28656,8 +28917,17 @@
       <c r="KY30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KZ30" t="n">
+      <c r="KZ30" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LA30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LB30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LC30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -29596,8 +29866,17 @@
       <c r="KY31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KZ31" t="n">
+      <c r="KZ31" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="LA31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LB31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LC31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -30536,8 +30815,17 @@
       <c r="KY32" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="KZ32" t="n">
+      <c r="KZ32" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="LA32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LB32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LC32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -31476,8 +31764,17 @@
       <c r="KY33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ33" t="n">
+      <c r="KZ33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LB33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LC33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -32416,8 +32713,17 @@
       <c r="KY34" s="2" t="n">
         <v>46.3</v>
       </c>
-      <c r="KZ34" t="n">
+      <c r="KZ34" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="LA34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LB34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LC34" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -33356,8 +33662,17 @@
       <c r="KY35" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KZ35" t="n">
+      <c r="KZ35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LA35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LB35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LC35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -34296,8 +34611,17 @@
       <c r="KY36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KZ36" t="n">
+      <c r="KZ36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="LA36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LB36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LC36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -35236,8 +35560,17 @@
       <c r="KY37" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KZ37" t="n">
+      <c r="KZ37" s="2" t="n">
         <v>89.7</v>
+      </c>
+      <c r="LA37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LB37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LC37" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -36176,8 +36509,17 @@
       <c r="KY38" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KZ38" t="n">
+      <c r="KZ38" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="LA38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LB38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LC38" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -37116,8 +37458,17 @@
       <c r="KY39" s="2" t="n">
         <v>105.2</v>
       </c>
-      <c r="KZ39" t="n">
+      <c r="KZ39" s="2" t="n">
         <v>114.4</v>
+      </c>
+      <c r="LA39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LB39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LC39" t="n">
+        <v>124.1</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -38056,8 +38407,17 @@
       <c r="KY40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ40" t="n">
+      <c r="KZ40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LA40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -38996,8 +39356,17 @@
       <c r="KY41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ41" t="n">
+      <c r="KZ41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -39936,8 +40305,17 @@
       <c r="KY42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ42" t="n">
+      <c r="KZ42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LA42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="3">
@@ -40876,8 +41254,17 @@
       <c r="KY43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ43" t="n">
+      <c r="KZ43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LB43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -41816,8 +42203,17 @@
       <c r="KY44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KZ44" t="n">
+      <c r="KZ44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="LA44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LB44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LC44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -42756,8 +43152,17 @@
       <c r="KY45" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="KZ45" t="n">
+      <c r="KZ45" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="LA45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LB45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LC45" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -43696,8 +44101,17 @@
       <c r="KY46" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KZ46" t="n">
+      <c r="KZ46" s="2" t="n">
         <v>285</v>
+      </c>
+      <c r="LA46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LB46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LC46" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -44636,8 +45050,17 @@
       <c r="KY47" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="KZ47" t="n">
+      <c r="KZ47" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="LA47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LB47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LC47" t="n">
+        <v>67.5</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -45576,8 +45999,17 @@
       <c r="KY48" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KZ48" t="n">
+      <c r="KZ48" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LA48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LB48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC48" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -46516,8 +46948,17 @@
       <c r="KY49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ49" t="n">
+      <c r="KZ49" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LA49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LB49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LC49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -47456,8 +47897,17 @@
       <c r="KY50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KZ50" t="n">
+      <c r="KZ50" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LA50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LB50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LC50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -48396,8 +48846,17 @@
       <c r="KY51" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KZ51" t="n">
+      <c r="KZ51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LB51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LC51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -49336,8 +49795,17 @@
       <c r="KY52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KZ52" t="n">
+      <c r="KZ52" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LA52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LB52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LC52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -50276,8 +50744,17 @@
       <c r="KY53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KZ53" t="n">
+      <c r="KZ53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LB53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LC53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -51216,7 +51693,16 @@
       <c r="KY54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ54" t="n">
+      <c r="KZ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52156,8 +52642,17 @@
       <c r="KY55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KZ55" t="n">
+      <c r="KZ55" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LA55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -53096,8 +53591,17 @@
       <c r="KY56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KZ56" t="n">
+      <c r="KZ56" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="LA56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LB56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LC56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -54036,8 +54540,17 @@
       <c r="KY57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KZ57" t="n">
+      <c r="KZ57" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="LA57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LB57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LC57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -54976,8 +55489,17 @@
       <c r="KY58" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="KZ58" t="n">
+      <c r="KZ58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="LA58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LB58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LC58" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -55916,8 +56438,17 @@
       <c r="KY59" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="KZ59" t="n">
+      <c r="KZ59" s="2" t="n">
         <v>341</v>
+      </c>
+      <c r="LA59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LB59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LC59" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -56856,8 +57387,17 @@
       <c r="KY60" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="KZ60" t="n">
+      <c r="KZ60" s="2" t="n">
         <v>1.1</v>
+      </c>
+      <c r="LA60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LB60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LC60" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -57796,8 +58336,17 @@
       <c r="KY61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KZ61" t="n">
+      <c r="KZ61" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="LA61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LB61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LC61" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -58736,8 +59285,17 @@
       <c r="KY62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KZ62" t="n">
+      <c r="KZ62" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LA62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LB62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LC62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -59676,8 +60234,17 @@
       <c r="KY63" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KZ63" t="n">
+      <c r="KZ63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LA63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LB63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LC63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -60616,8 +61183,17 @@
       <c r="KY64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KZ64" t="n">
+      <c r="KZ64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LA64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -61556,8 +62132,17 @@
       <c r="KY65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KZ65" t="n">
+      <c r="KZ65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LA65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LC65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -62496,8 +63081,17 @@
       <c r="KY66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KZ66" t="n">
+      <c r="KZ66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -63436,8 +64030,17 @@
       <c r="KY67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ67" t="n">
+      <c r="KZ67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -64376,8 +64979,17 @@
       <c r="KY68" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ68" t="n">
+      <c r="KZ68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LB68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -65316,7 +65928,16 @@
       <c r="KY69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ69" t="n">
+      <c r="KZ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66256,8 +66877,17 @@
       <c r="KY70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KZ70" t="n">
+      <c r="KZ70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LA70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LB70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LC70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -67196,8 +67826,17 @@
       <c r="KY71" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="KZ71" t="n">
+      <c r="KZ71" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="LA71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LB71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LC71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -68136,8 +68775,17 @@
       <c r="KY72" s="2" t="n">
         <v>33.36</v>
       </c>
-      <c r="KZ72" t="n">
+      <c r="KZ72" s="2" t="n">
         <v>28.42</v>
+      </c>
+      <c r="LA72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LB72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LC72" t="n">
+        <v>31.85</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -69076,8 +69724,17 @@
       <c r="KY73" s="2" t="n">
         <v>13.11</v>
       </c>
-      <c r="KZ73" t="n">
+      <c r="KZ73" s="2" t="n">
         <v>20.06</v>
+      </c>
+      <c r="LA73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LB73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LC73" t="n">
+        <v>18.82</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -70016,8 +70673,17 @@
       <c r="KY74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ74" t="n">
+      <c r="KZ74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LB74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LC74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -70956,8 +71622,17 @@
       <c r="KY75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KZ75" t="n">
+      <c r="KZ75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LA75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LB75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LC75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -71896,8 +72571,17 @@
       <c r="KY76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KZ76" t="n">
+      <c r="KZ76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LA76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LB76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LC76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -72836,8 +73520,17 @@
       <c r="KY77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KZ77" t="n">
+      <c r="KZ77" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LA77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LB77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LC77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -73776,8 +74469,17 @@
       <c r="KY78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KZ78" t="n">
+      <c r="KZ78" s="2" t="n">
         <v>2.47</v>
+      </c>
+      <c r="LA78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LB78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LC78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -74716,8 +75418,17 @@
       <c r="KY79" s="2" t="n">
         <v>5.18</v>
       </c>
-      <c r="KZ79" t="n">
+      <c r="KZ79" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="LA79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LB79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LC79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -75656,8 +76367,17 @@
       <c r="KY80" s="2" t="n">
         <v>43.9</v>
       </c>
-      <c r="KZ80" t="n">
+      <c r="KZ80" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="LA80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LB80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LC80" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -76596,8 +77316,17 @@
       <c r="KY81" s="2" t="n">
         <v>19.3</v>
       </c>
-      <c r="KZ81" t="n">
+      <c r="KZ81" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="LA81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LB81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LC81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -77536,8 +78265,17 @@
       <c r="KY82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="KZ82" t="n">
+      <c r="KZ82" s="2" t="n">
         <v>189.2</v>
+      </c>
+      <c r="LA82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LB82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LC82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -78476,8 +79214,17 @@
       <c r="KY83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KZ83" t="n">
+      <c r="KZ83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="LA83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LB83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LC83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -79416,8 +80163,17 @@
       <c r="KY84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KZ84" t="n">
+      <c r="KZ84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="LA84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LB84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LC84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -80356,8 +81112,17 @@
       <c r="KY85" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="KZ85" t="n">
+      <c r="KZ85" s="2" t="n">
         <v>110.7</v>
+      </c>
+      <c r="LA85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LB85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LC85" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -81296,8 +82061,17 @@
       <c r="KY86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ86" t="n">
+      <c r="KZ86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -82236,8 +83010,17 @@
       <c r="KY87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ87" t="n">
+      <c r="KZ87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -83176,8 +83959,17 @@
       <c r="KY88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ88" t="n">
+      <c r="KZ88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LA88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -84116,8 +84908,17 @@
       <c r="KY89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ89" t="n">
+      <c r="KZ89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -85056,8 +85857,17 @@
       <c r="KY90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KZ90" t="n">
+      <c r="KZ90" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="LA90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LB90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LC90" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -85996,8 +86806,17 @@
       <c r="KY91" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KZ91" t="n">
+      <c r="KZ91" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="LA91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LB91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LC91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -86936,8 +87755,17 @@
       <c r="KY92" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="KZ92" t="n">
+      <c r="KZ92" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="LA92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LB92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LC92" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -87876,8 +88704,17 @@
       <c r="KY93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="KZ93" t="n">
+      <c r="KZ93" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="LA93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LB93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LC93" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -88816,8 +89653,17 @@
       <c r="KY94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KZ94" t="n">
+      <c r="KZ94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LA94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LB94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LC94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -89756,8 +90602,17 @@
       <c r="KY95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ95" t="n">
+      <c r="KZ95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -90696,8 +91551,17 @@
       <c r="KY96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ96" t="n">
+      <c r="KZ96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LA96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LB96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LC96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -91636,8 +92500,17 @@
       <c r="KY97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ97" t="n">
+      <c r="KZ97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LB97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LC97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -92576,8 +93449,17 @@
       <c r="KY98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KZ98" t="n">
+      <c r="KZ98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LA98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LB98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LC98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -93516,8 +94398,17 @@
       <c r="KY99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KZ99" t="n">
+      <c r="KZ99" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LB99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LC99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -94456,8 +95347,17 @@
       <c r="KY100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ100" t="n">
+      <c r="KZ100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LA100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -95396,8 +96296,17 @@
       <c r="KY101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ101" t="n">
+      <c r="KZ101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -96336,8 +97245,17 @@
       <c r="KY102" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KZ102" t="n">
+      <c r="KZ102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LA102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LB102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LC102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Brisbane_stats.xlsx
+++ b/AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LC102"/>
+  <dimension ref="A1:LJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1405,7 +1405,28 @@
       <c r="LB1" s="2" t="n">
         <v>10798</v>
       </c>
-      <c r="LC1" t="n">
+      <c r="LC1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LD1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LE1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LF1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LG1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LH1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LI1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="LJ1" t="n">
         <v>10798</v>
       </c>
     </row>
@@ -2354,7 +2375,28 @@
       <c r="LB2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LG2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LI2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3303,7 +3345,28 @@
       <c r="LB3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LC3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LF3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LG3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LI3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LJ3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4252,7 +4315,28 @@
       <c r="LB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LJ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5201,7 +5285,28 @@
       <c r="LB5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC5" t="n">
+      <c r="LC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LJ5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,7 +6255,28 @@
       <c r="LB6" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="LC6" t="n">
+      <c r="LC6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LD6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LE6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LF6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LG6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LH6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LI6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LJ6" t="n">
         <v>108</v>
       </c>
     </row>
@@ -7099,7 +7225,28 @@
       <c r="LB7" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="LC7" t="n">
+      <c r="LC7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LD7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LE7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LF7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LG7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LH7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LI7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LJ7" t="n">
         <v>87</v>
       </c>
     </row>
@@ -8048,7 +8195,28 @@
       <c r="LB8" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="LC8" t="n">
+      <c r="LC8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LD8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LE8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LF8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LG8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LH8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LI8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LJ8" t="n">
         <v>21</v>
       </c>
     </row>
@@ -8997,7 +9165,28 @@
       <c r="LB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC9" t="n">
+      <c r="LC9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LJ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9946,7 +10135,28 @@
       <c r="LB10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC10" t="n">
+      <c r="LC10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LI10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LJ10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -10895,7 +11105,28 @@
       <c r="LB11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="LC11" t="n">
+      <c r="LC11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LD11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LE11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LF11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LG11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LH11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LI11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="LJ11" t="n">
         <v>208</v>
       </c>
     </row>
@@ -11844,7 +12075,28 @@
       <c r="LB12" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="LC12" t="n">
+      <c r="LC12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LD12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LE12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LF12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LG12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LH12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LI12" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="LJ12" t="n">
         <v>109</v>
       </c>
     </row>
@@ -12793,7 +13045,28 @@
       <c r="LB13" s="2" t="n">
         <v>317</v>
       </c>
-      <c r="LC13" t="n">
+      <c r="LC13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LD13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LE13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LF13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LG13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LH13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LI13" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LJ13" t="n">
         <v>317</v>
       </c>
     </row>
@@ -13742,7 +14015,28 @@
       <c r="LB14" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="LC14" t="n">
+      <c r="LC14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LD14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LE14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LF14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LG14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LH14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LI14" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LJ14" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -14691,7 +14985,28 @@
       <c r="LB15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="LC15" t="n">
+      <c r="LC15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LD15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LE15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LF15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LG15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LH15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LI15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="LJ15" t="n">
         <v>84</v>
       </c>
     </row>
@@ -15640,7 +15955,28 @@
       <c r="LB16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="LC16" t="n">
+      <c r="LC16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LD16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LE16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LF16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LG16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LH16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LI16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LJ16" t="n">
         <v>49</v>
       </c>
     </row>
@@ -16589,7 +16925,28 @@
       <c r="LB17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LC17" t="n">
+      <c r="LC17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LD17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LE17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LF17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LG17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LH17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LI17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LJ17" t="n">
         <v>41</v>
       </c>
     </row>
@@ -17538,7 +17895,28 @@
       <c r="LB18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LC18" t="n">
+      <c r="LC18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LD18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LE18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LG18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LH18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LI18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LJ18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18487,7 +18865,28 @@
       <c r="LB19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC19" t="n">
+      <c r="LC19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LI19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LJ19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19436,7 +19835,28 @@
       <c r="LB20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LC20" t="n">
+      <c r="LC20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LD20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LE20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LF20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LG20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LH20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LI20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LJ20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -20385,7 +20805,28 @@
       <c r="LB21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC21" t="n">
+      <c r="LC21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LI21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LJ21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -21334,7 +21775,28 @@
       <c r="LB22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC22" t="n">
+      <c r="LC22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LD22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LE22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LH22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LI22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LJ22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -22283,7 +22745,28 @@
       <c r="LB23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC23" t="n">
+      <c r="LC23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LJ23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23232,7 +23715,28 @@
       <c r="LB24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LC24" t="n">
+      <c r="LC24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LD24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LE24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LF24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LG24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LH24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LI24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LJ24" t="n">
         <v>28</v>
       </c>
     </row>
@@ -24181,7 +24685,28 @@
       <c r="LB25" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="LC25" t="n">
+      <c r="LC25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LD25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LE25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LF25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LG25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LH25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LI25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="LJ25" t="n">
         <v>57.1</v>
       </c>
     </row>
@@ -25130,7 +25655,28 @@
       <c r="LB26" s="2" t="n">
         <v>19.81</v>
       </c>
-      <c r="LC26" t="n">
+      <c r="LC26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LD26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LE26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LF26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LG26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LH26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LI26" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LJ26" t="n">
         <v>19.81</v>
       </c>
     </row>
@@ -26079,7 +26625,28 @@
       <c r="LB27" s="2" t="n">
         <v>11.32</v>
       </c>
-      <c r="LC27" t="n">
+      <c r="LC27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LD27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LE27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LF27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LG27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LH27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LI27" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="LJ27" t="n">
         <v>11.32</v>
       </c>
     </row>
@@ -27028,7 +27595,28 @@
       <c r="LB28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LC28" t="n">
+      <c r="LC28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LD28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LE28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LF28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LH28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LI28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LJ28" t="n">
         <v>42</v>
       </c>
     </row>
@@ -27977,7 +28565,28 @@
       <c r="LB29" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LC29" t="n">
+      <c r="LC29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LH29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LI29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LJ29" t="n">
         <v>40</v>
       </c>
     </row>
@@ -28926,7 +29535,28 @@
       <c r="LB30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LC30" t="n">
+      <c r="LC30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LD30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LE30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LF30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LH30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LI30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LJ30" t="n">
         <v>38</v>
       </c>
     </row>
@@ -29875,7 +30505,28 @@
       <c r="LB31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="LC31" t="n">
+      <c r="LC31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LD31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LE31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LF31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LG31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LH31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LI31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LJ31" t="n">
         <v>59</v>
       </c>
     </row>
@@ -30824,7 +31475,28 @@
       <c r="LB32" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="LC32" t="n">
+      <c r="LC32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LD32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LE32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LF32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LG32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LH32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LI32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LJ32" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -31773,7 +32445,28 @@
       <c r="LB33" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="LC33" t="n">
+      <c r="LC33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LD33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LE33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LF33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LG33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LH33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LI33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="LJ33" t="n">
         <v>3.69</v>
       </c>
     </row>
@@ -32722,7 +33415,28 @@
       <c r="LB34" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="LC34" t="n">
+      <c r="LC34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LD34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LE34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LF34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LG34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LH34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LI34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="LJ34" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -33671,7 +34385,28 @@
       <c r="LB35" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="LC35" t="n">
+      <c r="LC35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LD35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LE35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LF35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LG35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LH35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LI35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LJ35" t="n">
         <v>27.1</v>
       </c>
     </row>
@@ -34620,7 +35355,28 @@
       <c r="LB36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="LC36" t="n">
+      <c r="LC36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LD36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LE36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LF36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LG36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LH36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LI36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LJ36" t="n">
         <v>188.1</v>
       </c>
     </row>
@@ -35569,7 +36325,28 @@
       <c r="LB37" s="2" t="n">
         <v>89.2</v>
       </c>
-      <c r="LC37" t="n">
+      <c r="LC37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LD37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LE37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LF37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LG37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LH37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LI37" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LJ37" t="n">
         <v>89.2</v>
       </c>
     </row>
@@ -36518,7 +37295,28 @@
       <c r="LB38" s="2" t="n">
         <v>26.66</v>
       </c>
-      <c r="LC38" t="n">
+      <c r="LC38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LD38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LE38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LF38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LG38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LH38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LI38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LJ38" t="n">
         <v>26.66</v>
       </c>
     </row>
@@ -37467,7 +38265,28 @@
       <c r="LB39" s="2" t="n">
         <v>124.1</v>
       </c>
-      <c r="LC39" t="n">
+      <c r="LC39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LD39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LE39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LF39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LG39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LH39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LI39" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="LJ39" t="n">
         <v>124.1</v>
       </c>
     </row>
@@ -38416,7 +39235,28 @@
       <c r="LB40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC40" t="n">
+      <c r="LC40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LI40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LJ40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39365,7 +40205,28 @@
       <c r="LB41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC41" t="n">
+      <c r="LC41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LD41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LF41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LG41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LJ41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40314,7 +41175,28 @@
       <c r="LB42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC42" t="n">
+      <c r="LC42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LH42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LI42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LJ42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -41263,7 +42145,28 @@
       <c r="LB43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC43" t="n">
+      <c r="LC43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LH43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LI43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LJ43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -42212,7 +43115,28 @@
       <c r="LB44" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="LC44" t="n">
+      <c r="LC44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LD44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LE44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LF44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LG44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LH44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LI44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="LJ44" t="n">
         <v>149</v>
       </c>
     </row>
@@ -43161,7 +44085,28 @@
       <c r="LB45" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="LC45" t="n">
+      <c r="LC45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LD45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LE45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LF45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LG45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LH45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LI45" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="LJ45" t="n">
         <v>164</v>
       </c>
     </row>
@@ -44110,7 +45055,28 @@
       <c r="LB46" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="LC46" t="n">
+      <c r="LC46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LD46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LE46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LF46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LG46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LH46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LI46" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="LJ46" t="n">
         <v>214</v>
       </c>
     </row>
@@ -45059,7 +46025,28 @@
       <c r="LB47" s="2" t="n">
         <v>67.5</v>
       </c>
-      <c r="LC47" t="n">
+      <c r="LC47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LD47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LE47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LF47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LG47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LH47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LI47" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="LJ47" t="n">
         <v>67.5</v>
       </c>
     </row>
@@ -46008,7 +46995,28 @@
       <c r="LB48" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LC48" t="n">
+      <c r="LC48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LH48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LI48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LJ48" t="n">
         <v>40</v>
       </c>
     </row>
@@ -46957,7 +47965,28 @@
       <c r="LB49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LC49" t="n">
+      <c r="LC49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LE49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LF49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LG49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LH49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LI49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LJ49" t="n">
         <v>15</v>
       </c>
     </row>
@@ -47906,7 +48935,28 @@
       <c r="LB50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LC50" t="n">
+      <c r="LC50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LD50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LE50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LF50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LG50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LH50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LI50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LJ50" t="n">
         <v>15</v>
       </c>
     </row>
@@ -48855,7 +49905,28 @@
       <c r="LB51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LC51" t="n">
+      <c r="LC51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LD51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LE51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LF51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LH51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LI51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LJ51" t="n">
         <v>42</v>
       </c>
     </row>
@@ -49804,7 +50875,28 @@
       <c r="LB52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LC52" t="n">
+      <c r="LC52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LD52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LE52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LF52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LH52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LI52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LJ52" t="n">
         <v>38</v>
       </c>
     </row>
@@ -50753,7 +51845,28 @@
       <c r="LB53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LC53" t="n">
+      <c r="LC53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LD53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LE53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LF53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LG53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LH53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LI53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LJ53" t="n">
         <v>41</v>
       </c>
     </row>
@@ -51702,7 +52815,28 @@
       <c r="LB54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC54" t="n">
+      <c r="LC54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LJ54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52651,7 +53785,28 @@
       <c r="LB55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC55" t="n">
+      <c r="LC55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LI55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LJ55" t="n">
         <v>9</v>
       </c>
     </row>
@@ -53600,7 +54755,28 @@
       <c r="LB56" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="LC56" t="n">
+      <c r="LC56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LD56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LE56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LF56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LG56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LH56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LI56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LJ56" t="n">
         <v>56.2</v>
       </c>
     </row>
@@ -54549,7 +55725,28 @@
       <c r="LB57" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="LC57" t="n">
+      <c r="LC57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LD57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LE57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LF57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LG57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LH57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LI57" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LJ57" t="n">
         <v>220</v>
       </c>
     </row>
@@ -55498,7 +56695,28 @@
       <c r="LB58" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="LC58" t="n">
+      <c r="LC58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LD58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LE58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LF58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LG58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LH58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LI58" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LJ58" t="n">
         <v>194</v>
       </c>
     </row>
@@ -56447,7 +57665,28 @@
       <c r="LB59" s="2" t="n">
         <v>414</v>
       </c>
-      <c r="LC59" t="n">
+      <c r="LC59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LD59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LE59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LF59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LG59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LH59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LI59" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="LJ59" t="n">
         <v>414</v>
       </c>
     </row>
@@ -57396,7 +58635,28 @@
       <c r="LB60" s="2" t="n">
         <v>1.13</v>
       </c>
-      <c r="LC60" t="n">
+      <c r="LC60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LD60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LE60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LF60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LG60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LH60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LI60" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="LJ60" t="n">
         <v>1.13</v>
       </c>
     </row>
@@ -58345,7 +59605,28 @@
       <c r="LB61" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="LC61" t="n">
+      <c r="LC61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LD61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LE61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LF61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LG61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LH61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LI61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="LJ61" t="n">
         <v>79</v>
       </c>
     </row>
@@ -59294,7 +60575,28 @@
       <c r="LB62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LC62" t="n">
+      <c r="LC62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LD62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LE62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LF62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LG62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LH62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LI62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LJ62" t="n">
         <v>57</v>
       </c>
     </row>
@@ -60243,7 +61545,28 @@
       <c r="LB63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LC63" t="n">
+      <c r="LC63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LD63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LE63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LF63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LG63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LH63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LI63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LJ63" t="n">
         <v>44</v>
       </c>
     </row>
@@ -61192,7 +62515,28 @@
       <c r="LB64" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC64" t="n">
+      <c r="LC64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LI64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LJ64" t="n">
         <v>10</v>
       </c>
     </row>
@@ -62141,7 +63485,28 @@
       <c r="LB65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LC65" t="n">
+      <c r="LC65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LD65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LE65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LG65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LH65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LI65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LJ65" t="n">
         <v>17</v>
       </c>
     </row>
@@ -63090,7 +64455,28 @@
       <c r="LB66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LC66" t="n">
+      <c r="LC66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LE66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LF66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LH66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LI66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LJ66" t="n">
         <v>13</v>
       </c>
     </row>
@@ -64039,7 +65425,28 @@
       <c r="LB67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC67" t="n">
+      <c r="LC67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LI67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LJ67" t="n">
         <v>10</v>
       </c>
     </row>
@@ -64988,7 +66395,28 @@
       <c r="LB68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC68" t="n">
+      <c r="LC68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LH68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LI68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LJ68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -65937,7 +67365,28 @@
       <c r="LB69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC69" t="n">
+      <c r="LC69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LJ69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66886,7 +68335,28 @@
       <c r="LB70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LC70" t="n">
+      <c r="LC70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LD70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LE70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LF70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LG70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LH70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LI70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LJ70" t="n">
         <v>22</v>
       </c>
     </row>
@@ -67835,7 +69305,28 @@
       <c r="LB71" s="2" t="n">
         <v>59.1</v>
       </c>
-      <c r="LC71" t="n">
+      <c r="LC71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LD71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LE71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LF71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LG71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LH71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LI71" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="LJ71" t="n">
         <v>59.1</v>
       </c>
     </row>
@@ -68784,7 +70275,28 @@
       <c r="LB72" s="2" t="n">
         <v>31.85</v>
       </c>
-      <c r="LC72" t="n">
+      <c r="LC72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LD72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LE72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LF72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LG72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LH72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LI72" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="LJ72" t="n">
         <v>31.85</v>
       </c>
     </row>
@@ -69733,7 +71245,28 @@
       <c r="LB73" s="2" t="n">
         <v>18.82</v>
       </c>
-      <c r="LC73" t="n">
+      <c r="LC73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LD73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LE73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LF73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LG73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LH73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LI73" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="LJ73" t="n">
         <v>18.82</v>
       </c>
     </row>
@@ -70682,7 +72215,28 @@
       <c r="LB74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC74" t="n">
+      <c r="LC74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LD74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LE74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LF74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LG74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LH74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LI74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LJ74" t="n">
         <v>33</v>
       </c>
     </row>
@@ -71631,7 +73185,28 @@
       <c r="LB75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LC75" t="n">
+      <c r="LC75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LD75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LE75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LF75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LG75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LH75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LI75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LJ75" t="n">
         <v>55</v>
       </c>
     </row>
@@ -72580,7 +74155,28 @@
       <c r="LB76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LC76" t="n">
+      <c r="LC76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LD76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LE76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LF76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LG76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LH76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LI76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LJ76" t="n">
         <v>43</v>
       </c>
     </row>
@@ -73529,7 +75125,28 @@
       <c r="LB77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="LC77" t="n">
+      <c r="LC77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LD77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LE77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LF77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LG77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LH77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LI77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LJ77" t="n">
         <v>51</v>
       </c>
     </row>
@@ -74478,7 +76095,28 @@
       <c r="LB78" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="LC78" t="n">
+      <c r="LC78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LD78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LE78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LF78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LG78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LH78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LI78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LJ78" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -75427,7 +77065,28 @@
       <c r="LB79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="LC79" t="n">
+      <c r="LC79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LD79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LE79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LF79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LG79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LH79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LI79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="LJ79" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -76376,7 +78035,28 @@
       <c r="LB80" s="2" t="n">
         <v>41.2</v>
       </c>
-      <c r="LC80" t="n">
+      <c r="LC80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LD80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LE80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LF80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LG80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LH80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LI80" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="LJ80" t="n">
         <v>41.2</v>
       </c>
     </row>
@@ -77325,7 +79005,28 @@
       <c r="LB81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="LC81" t="n">
+      <c r="LC81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LD81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LE81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LF81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LG81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LH81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LI81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LJ81" t="n">
         <v>25.5</v>
       </c>
     </row>
@@ -78274,7 +79975,28 @@
       <c r="LB82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="LC82" t="n">
+      <c r="LC82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LD82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LE82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LF82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LG82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LH82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LI82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LJ82" t="n">
         <v>188.2</v>
       </c>
     </row>
@@ -79223,7 +80945,28 @@
       <c r="LB83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="LC83" t="n">
+      <c r="LC83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LD83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LE83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LF83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LG83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LH83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LI83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="LJ83" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -80172,7 +81915,28 @@
       <c r="LB84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="LC84" t="n">
+      <c r="LC84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LD84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LE84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LF84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LG84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LH84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LI84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LJ84" t="n">
         <v>25.33</v>
       </c>
     </row>
@@ -81121,7 +82885,28 @@
       <c r="LB85" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="LC85" t="n">
+      <c r="LC85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LD85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LE85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LF85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LG85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LH85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LI85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LJ85" t="n">
         <v>94</v>
       </c>
     </row>
@@ -82070,7 +83855,28 @@
       <c r="LB86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC86" t="n">
+      <c r="LC86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LI86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LJ86" t="n">
         <v>9</v>
       </c>
     </row>
@@ -83019,7 +84825,28 @@
       <c r="LB87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC87" t="n">
+      <c r="LC87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LI87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LJ87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -83968,7 +85795,28 @@
       <c r="LB88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC88" t="n">
+      <c r="LC88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LJ88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -84917,7 +86765,28 @@
       <c r="LB89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC89" t="n">
+      <c r="LC89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LH89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LI89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LJ89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -85866,7 +87735,28 @@
       <c r="LB90" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="LC90" t="n">
+      <c r="LC90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LD90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LE90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LF90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LG90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LH90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LI90" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="LJ90" t="n">
         <v>157</v>
       </c>
     </row>
@@ -86815,7 +88705,28 @@
       <c r="LB91" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="LC91" t="n">
+      <c r="LC91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LD91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LE91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LF91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LG91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LH91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LI91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LJ91" t="n">
         <v>257</v>
       </c>
     </row>
@@ -87764,7 +89675,28 @@
       <c r="LB92" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="LC92" t="n">
+      <c r="LC92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LD92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LE92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LF92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LG92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LH92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LI92" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LJ92" t="n">
         <v>296</v>
       </c>
     </row>
@@ -88713,7 +90645,28 @@
       <c r="LB93" s="2" t="n">
         <v>71.5</v>
       </c>
-      <c r="LC93" t="n">
+      <c r="LC93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LD93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LE93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LF93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LG93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LH93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LI93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="LJ93" t="n">
         <v>71.5</v>
       </c>
     </row>
@@ -89662,7 +91615,28 @@
       <c r="LB94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LC94" t="n">
+      <c r="LC94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LD94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LE94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LF94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LG94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LH94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LI94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LJ94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -90611,7 +92585,28 @@
       <c r="LB95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC95" t="n">
+      <c r="LC95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LI95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LJ95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -91560,7 +93555,28 @@
       <c r="LB96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LC96" t="n">
+      <c r="LC96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LD96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LF96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LG96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LH96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LI96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LJ96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -92509,7 +94525,28 @@
       <c r="LB97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC97" t="n">
+      <c r="LC97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LD97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LE97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LF97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LG97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LH97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LI97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LJ97" t="n">
         <v>33</v>
       </c>
     </row>
@@ -93458,7 +95495,28 @@
       <c r="LB98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LC98" t="n">
+      <c r="LC98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LD98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LE98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LF98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LG98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LH98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LI98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LJ98" t="n">
         <v>43</v>
       </c>
     </row>
@@ -94407,7 +96465,28 @@
       <c r="LB99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LC99" t="n">
+      <c r="LC99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LD99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LE99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LF99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LG99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LH99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LI99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LJ99" t="n">
         <v>46</v>
       </c>
     </row>
@@ -95356,7 +97435,28 @@
       <c r="LB100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC100" t="n">
+      <c r="LC100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LI100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LJ100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -96305,7 +98405,28 @@
       <c r="LB101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC101" t="n">
+      <c r="LC101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LI101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LJ101" t="n">
         <v>10</v>
       </c>
     </row>
@@ -97254,7 +99375,28 @@
       <c r="LB102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="LC102" t="n">
+      <c r="LC102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LD102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LE102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LF102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LG102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LH102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LI102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LJ102" t="n">
         <v>76.90000000000001</v>
       </c>
     </row>
